--- a/sinav_takvimi_tam_rapor.xlsx
+++ b/sinav_takvimi_tam_rapor.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="394">
   <si>
     <t>Gün</t>
   </si>
@@ -80,619 +80,649 @@
     <t>20:00-21:00</t>
   </si>
   <si>
-    <t>Derslik 201 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 204</t>
+    <t>Derslik 204 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 110</t>
   </si>
   <si>
     <t>Derslik 208 + Derslik 101</t>
   </si>
   <si>
-    <t>Derslik 202 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 108</t>
+    <t>Derslik 201 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 201</t>
   </si>
   <si>
     <t>Derslik 205 + Derslik 210</t>
   </si>
   <si>
-    <t>Derslik 102 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 111</t>
+    <t>Derslik 109 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 209</t>
   </si>
   <si>
     <t>Derslik 203 + Derslik 201</t>
   </si>
   <si>
-    <t>Derslik 209 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 209</t>
+    <t>Yatırım Yönetimi</t>
+  </si>
+  <si>
+    <t>Örgüt Sosyolojisi</t>
+  </si>
+  <si>
+    <t>Dijital Dönüşümün Yönetimi</t>
+  </si>
+  <si>
+    <t>Mali Tablolar Analizi</t>
+  </si>
+  <si>
+    <t>Financial Management I</t>
+  </si>
+  <si>
+    <t>Marketing Management I</t>
+  </si>
+  <si>
+    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
+  </si>
+  <si>
+    <t>Modelleme ve Optimizasyon</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Çift)</t>
+  </si>
+  <si>
+    <t>Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Küresel Tedarik Zinciri ve Lojistik</t>
+  </si>
+  <si>
+    <t>Teknoloji Yönetiminin Esasları</t>
+  </si>
+  <si>
+    <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
+  </si>
+  <si>
+    <t>Yönetimin Felsefi Temelleri</t>
+  </si>
+  <si>
+    <t>Global Marketing (Çift)</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları A</t>
+  </si>
+  <si>
+    <t>Uluslararası Finansman</t>
+  </si>
+  <si>
+    <t>Örgütler ve Yönetim</t>
+  </si>
+  <si>
+    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
+  </si>
+  <si>
+    <t>Vadeli İşlem Piyasaları</t>
+  </si>
+  <si>
+    <t>Kurumsal Koçluk ve Mentorluk</t>
+  </si>
+  <si>
+    <t>Stratejik Yatırım Kararları ve Planlama</t>
+  </si>
+  <si>
+    <t>Stratejik İşletme Finansı</t>
+  </si>
+  <si>
+    <t>Üretim İşlemler Stratejisi</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>Borçlar Hukuku</t>
+  </si>
+  <si>
+    <t>İleri Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>Teknoloji ve Sanayi Dinamikleri</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
+  </si>
+  <si>
+    <t>Yönetimde Güncel Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Tek)</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
+  </si>
+  <si>
+    <t>Stratejik Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>Yönetim Muhasebesi</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları B</t>
+  </si>
+  <si>
+    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
+  </si>
+  <si>
+    <t>İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Yönetim Atölyesi</t>
+  </si>
+  <si>
+    <t>Stratejik Finans Yönetimi</t>
+  </si>
+  <si>
+    <t>Pazarlama Kuramı</t>
+  </si>
+  <si>
+    <t>Enformetri</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Tek)</t>
+  </si>
+  <si>
+    <t>E-Pazarlama</t>
+  </si>
+  <si>
+    <t>Yönetim Geliştirme</t>
+  </si>
+  <si>
+    <t>Introduction to Microeconomics</t>
+  </si>
+  <si>
+    <t>Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>Üretim ve İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Tek)</t>
+  </si>
+  <si>
+    <t>Pazarlamada Güncel Konular</t>
+  </si>
+  <si>
+    <t>Sosyoloji</t>
+  </si>
+  <si>
+    <t>Retailing I</t>
+  </si>
+  <si>
+    <t>Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>Malzeme ve Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>Akıllı Karar Modelleri</t>
+  </si>
+  <si>
+    <t>Ticaret Hukuku</t>
+  </si>
+  <si>
+    <t>Perakendecilik</t>
+  </si>
+  <si>
+    <t>E-İş ve Kurumsal Kaynak Planlama</t>
+  </si>
+  <si>
+    <t>İleri Örgüt Sosyolojisi</t>
+  </si>
+  <si>
+    <t>Girişimcilik ve KOBİ Yönetimi</t>
+  </si>
+  <si>
+    <t>Kariyer Planlama</t>
+  </si>
+  <si>
+    <t>Sürdürülebilir Pazarlama</t>
+  </si>
+  <si>
+    <t>Vestel İşletmecilik Seminerleri I</t>
+  </si>
+  <si>
+    <t>Reklamcılık Yönetimi</t>
+  </si>
+  <si>
+    <t>İşletme Hukuku</t>
+  </si>
+  <si>
+    <t>Türk Dili I</t>
+  </si>
+  <si>
+    <t>Hizmet Pazarlaması</t>
+  </si>
+  <si>
+    <t>İleri Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>İstatistik I</t>
+  </si>
+  <si>
+    <t>System Analysis and Design</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Stratejik Yönetimde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Endüstriyel Pazarlama</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
+  </si>
+  <si>
+    <t>Proje Yönetimi</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi</t>
+  </si>
+  <si>
+    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
+  </si>
+  <si>
+    <t>Stratejik Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
   </si>
   <si>
     <t>Muhasebe I</t>
   </si>
   <si>
-    <t>İleri Örgüt Sosyolojisi</t>
-  </si>
-  <si>
-    <t>Girişimcilik ve KOBİ Yönetimi</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
-  </si>
-  <si>
-    <t>Pazarlamada Güncel Konular</t>
-  </si>
-  <si>
-    <t>Marketing Management I</t>
-  </si>
-  <si>
-    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
-  </si>
-  <si>
-    <t>Borçlar Hukuku</t>
-  </si>
-  <si>
-    <t>Hizmet Pazarlaması</t>
-  </si>
-  <si>
-    <t>Stratejik Yönetimde Güncel Konular</t>
-  </si>
-  <si>
-    <t>Yatırım Yönetimi</t>
-  </si>
-  <si>
-    <t>İstatistik I</t>
-  </si>
-  <si>
-    <t>Yönetimin Felsefi Temelleri</t>
-  </si>
-  <si>
-    <t>Financial Management I</t>
-  </si>
-  <si>
-    <t>Global Marketing (Çift)</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları A</t>
-  </si>
-  <si>
-    <t>Örgütler ve Yönetim</t>
-  </si>
-  <si>
-    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
-  </si>
-  <si>
-    <t>Ticaret Hukuku</t>
-  </si>
-  <si>
-    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
-  </si>
-  <si>
-    <t>Stratejik Yatırım Kararları ve Planlama</t>
+    <t>Bilgi Yönetimi</t>
+  </si>
+  <si>
+    <t>Matematik-I (Çift)</t>
+  </si>
+  <si>
+    <t>Human Resources Management</t>
+  </si>
+  <si>
+    <t>Management Consultancy</t>
+  </si>
+  <si>
+    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
+  </si>
+  <si>
+    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
+  </si>
+  <si>
+    <t>Global Marketing (Tek)</t>
+  </si>
+  <si>
+    <t>Operations Management I</t>
+  </si>
+  <si>
+    <t>Seminer</t>
+  </si>
+  <si>
+    <t>Operations Research I</t>
+  </si>
+  <si>
+    <t>Yatırım Analizi ve Portföy Yönetimi</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>Matematik-I (Tek)</t>
+  </si>
+  <si>
+    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
+  </si>
+  <si>
+    <t>İş Analitiğinde Sayısal Yöntemler</t>
+  </si>
+  <si>
+    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Ağ Modelleri</t>
   </si>
   <si>
     <t>Finansal Muhasebe</t>
   </si>
   <si>
-    <t>Üretim İşlemler Stratejisi</t>
-  </si>
-  <si>
-    <t>Enformetri</t>
-  </si>
-  <si>
-    <t>Yönetim Bilişim Sistemleri</t>
-  </si>
-  <si>
-    <t>Human Resources Management</t>
-  </si>
-  <si>
-    <t>Management Consultancy</t>
-  </si>
-  <si>
-    <t>Teknoloji ve Sanayi Dinamikleri</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Operations Research I</t>
-  </si>
-  <si>
-    <t>Sosyoloji</t>
-  </si>
-  <si>
-    <t>System Analysis and Design</t>
-  </si>
-  <si>
-    <t>E-Pazarlama</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Yönetim Geliştirme</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları B</t>
-  </si>
-  <si>
-    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
-  </si>
-  <si>
-    <t>Pazarlama Yönetimi</t>
-  </si>
-  <si>
-    <t>Vadeli İşlem Piyasaları</t>
-  </si>
-  <si>
-    <t>Örgütsel Davranış</t>
-  </si>
-  <si>
-    <t>Endüstriyel Pazarlama</t>
-  </si>
-  <si>
-    <t>İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Pazarlama Kuramı</t>
-  </si>
-  <si>
-    <t>Yatırım Analizi ve Portföy Yönetimi</t>
-  </si>
-  <si>
-    <t>Modelleme ve Optimizasyon</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Tek)</t>
-  </si>
-  <si>
-    <t>Matematik-I (Çift)</t>
-  </si>
-  <si>
-    <t>Introduction to Microeconomics</t>
-  </si>
-  <si>
-    <t>Teknoloji Yönetiminin Esasları</t>
-  </si>
-  <si>
-    <t>İşletme Hukuku</t>
-  </si>
-  <si>
-    <t>Türk Dili I</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Çift)</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>Matematik-I (Tek)</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>Uluslararası Finansman</t>
-  </si>
-  <si>
-    <t>Proje Yönetimi</t>
-  </si>
-  <si>
-    <t>Akıllı Karar Modelleri</t>
-  </si>
-  <si>
-    <t>Kurumsal Koçluk ve Mentorluk</t>
-  </si>
-  <si>
-    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
-  </si>
-  <si>
-    <t>Stratejik İşletme Finansı</t>
-  </si>
-  <si>
-    <t>Perakendecilik</t>
-  </si>
-  <si>
-    <t>Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Örgüt Sosyolojisi</t>
-  </si>
-  <si>
-    <t>Üretim ve İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Mali Tablolar Analizi</t>
-  </si>
-  <si>
-    <t>Vestel İşletmecilik Seminerleri I</t>
-  </si>
-  <si>
-    <t>Bilgi Yönetimi</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>E-İş ve Kurumsal Kaynak Planlama</t>
-  </si>
-  <si>
-    <t>Dijital Dönüşümün Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetim Muhasebesi</t>
-  </si>
-  <si>
-    <t>İleri Örgütsel Davranış</t>
-  </si>
-  <si>
-    <t>Sürdürülebilir Pazarlama</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi</t>
-  </si>
-  <si>
-    <t>İş Analitiğinde Sayısal Yöntemler</t>
-  </si>
-  <si>
-    <t>Stratejik Pazarlama Yönetimi</t>
-  </si>
-  <si>
-    <t>Stratejik Finans Yönetimi</t>
-  </si>
-  <si>
-    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
-  </si>
-  <si>
-    <t>Stratejik Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Reklamcılık Yönetimi</t>
-  </si>
-  <si>
-    <t>Kariyer Planlama</t>
-  </si>
-  <si>
-    <t>Küresel Tedarik Zinciri ve Lojistik</t>
-  </si>
-  <si>
-    <t>Seminer</t>
-  </si>
-  <si>
-    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
-  </si>
-  <si>
-    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
-  </si>
-  <si>
-    <t>Yönetimde Güncel Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>Global Marketing (Tek)</t>
-  </si>
-  <si>
-    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
-  </si>
-  <si>
-    <t>İleri Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
-  </si>
-  <si>
-    <t>Retailing I</t>
-  </si>
-  <si>
-    <t>Operations Management I</t>
-  </si>
-  <si>
-    <t>Malzeme ve Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetim Atölyesi</t>
-  </si>
-  <si>
-    <t>Ağ Modelleri</t>
+    <t>3. Sınıf</t>
+  </si>
+  <si>
+    <t>İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
+  </si>
+  <si>
+    <t>İşletme Tezli</t>
   </si>
   <si>
     <t>2. Sınıf</t>
   </si>
   <si>
+    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
+  </si>
+  <si>
+    <t>Üretim Yönetimi ve Sayısal Yöntemler Doktora</t>
+  </si>
+  <si>
+    <t>1. Sınıf</t>
+  </si>
+  <si>
     <t>Yönetim ve Organizasyon Doktora</t>
   </si>
   <si>
-    <t>3. Sınıf</t>
+    <t>4. Sınıf</t>
+  </si>
+  <si>
+    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İşletme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Yönetim Bilimi ve Organizasyon Tezli</t>
   </si>
   <si>
     <t>İşletme Tezli, Üretim Yönetimi Tezli</t>
@@ -701,60 +731,21 @@
     <t>İşletme Tezli, Pazarlama Tezli</t>
   </si>
   <si>
-    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
-  </si>
-  <si>
-    <t>4. Sınıf</t>
-  </si>
-  <si>
-    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Üretim Yönetimi ve Sayısal Yöntemler Doktora</t>
-  </si>
-  <si>
-    <t>İşletme Tezli</t>
-  </si>
-  <si>
-    <t>1. Sınıf</t>
+    <t>Pazarlama Tezli</t>
+  </si>
+  <si>
+    <t>Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
     <t>İşletme Doktora</t>
   </si>
   <si>
-    <t>İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
-  </si>
-  <si>
-    <t>Pazarlama Tezli</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim İşletme Tezsiz</t>
-  </si>
-  <si>
-    <t>Yönetim Bilimi ve Organizasyon Tezli</t>
+    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
     <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
-    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
-  </si>
-  <si>
     <t>Zorunlu</t>
   </si>
   <si>
@@ -767,448 +758,448 @@
     <t>Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
   </si>
   <si>
+    <t>Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
     <t>Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
   </si>
   <si>
+    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
     <t>Prof. Dr. Burcu ARACIOĞLU</t>
   </si>
   <si>
+    <t>Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
     <t>Prof. Dr. Keti VENTURA</t>
   </si>
   <si>
-    <t>Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Haluk SOYUER</t>
+    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
   </si>
   <si>
     <t>Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
   </si>
   <si>
+    <t>Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
     <t>Prof. Dr. Ayla Özhan DEDEOĞLU</t>
   </si>
   <si>
-    <t>Prof. Dr. Burak ÇAPRAZ</t>
+    <t>Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 4</t>
   </si>
   <si>
     <t>Doç. Dr. İnanç KABASAKAL</t>
   </si>
   <si>
-    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
     <t>Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
-    <t>Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
     <t>ÖĞRETMEN 2</t>
   </si>
   <si>
-    <t>ÖĞRETMEN 3</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+    <t>ÖĞRETMEN 5</t>
   </si>
   <si>
     <t>ÖĞRETMEN 1</t>
   </si>
   <si>
-    <t>Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 5</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 108: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 109: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 208: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 110: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 204: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 101: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 105: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 204: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 103: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 104: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 211: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 108: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 210: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 109: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 110: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 202: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 205: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 208: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 111: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 201: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 104: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 209: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 109: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 104: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 103: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 108: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 104: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 101: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 110: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 102: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 210: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 204: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 201: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 205: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 110: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 303: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 111: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 102: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 110: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 209: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 208: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 208: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 211: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 204: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 204: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 205: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 109: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 103: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 105: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 211: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 105: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 208: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 211: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 111: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 102: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 110: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 110: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 303: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 111: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 205: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 101: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 110: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 211: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 208: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 105: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 111: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 209: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 211: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 201: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 211: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 104: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 208: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 108: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 203: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 208: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 303: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 102: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 203: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 104: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 205: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 104: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 109: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 303: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 208: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 303: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 202: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 204: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 109: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 203: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 209: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 204: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 109: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 210: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 101: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 205: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 103: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 201: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 211: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 211: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 303: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 103: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 210: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 104: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 103: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 102: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 204: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 105: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 211: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 210: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 204 + Derslik 303: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 105: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 210: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 203: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 205: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 102: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 105: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 205: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 211: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 303: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 101: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 205: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 104: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 211: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 102: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 102: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 111: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 202: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 205: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 103: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 109: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 201: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 209: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 109: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 105: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 211: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 109: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 101: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 208: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 102: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 211: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 103: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 103: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 102: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 104: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 108: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 211: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 210: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 101: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 110: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 101: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 103: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 211: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 110: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 210: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 208: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 209: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 303: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 101: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 102: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 303: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 110: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 103: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 111: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 209: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 209: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 211: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 303: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 103: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 208: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 104: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 110: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 202: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 303: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 101: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 208: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 205: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 102: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 101: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 111: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 208: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 205: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 203: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 208: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 104: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 105: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 109: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 204: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 110: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 303: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 203: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 211: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 209: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 201: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 210: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 102: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 208: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 201: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 204: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 211: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 201: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 209: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 205: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 209: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 110: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 105: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 303: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 202: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 205: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 102: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 111: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 303: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 202: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 201: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 204: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 110: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 108: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 104: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 209: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 201: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>
@@ -1665,16 +1656,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1688,16 +1679,16 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1711,16 +1702,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1734,16 +1725,16 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1757,16 +1748,16 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1780,16 +1771,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>222</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1803,16 +1794,16 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1826,16 +1817,16 @@
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1849,16 +1840,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1872,16 +1863,16 @@
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1889,22 +1880,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1918,16 +1909,16 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1941,16 +1932,16 @@
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1964,16 +1955,16 @@
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1984,19 +1975,19 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2010,16 +2001,16 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2033,16 +2024,16 @@
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2056,16 +2047,16 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2079,16 +2070,16 @@
         <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2102,16 +2093,16 @@
         <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2122,19 +2113,19 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2145,19 +2136,19 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2168,19 +2159,19 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2191,19 +2182,19 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2214,19 +2205,19 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2237,19 +2228,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2260,19 +2251,19 @@
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2283,19 +2274,19 @@
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2303,22 +2294,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2329,19 +2320,19 @@
         <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2352,16 +2343,16 @@
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>249</v>
@@ -2372,22 +2363,22 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2398,19 +2389,19 @@
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2418,22 +2409,22 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2441,22 +2432,22 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2467,19 +2458,19 @@
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2487,22 +2478,22 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2516,16 +2507,16 @@
         <v>55</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2533,22 +2524,22 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2562,16 +2553,16 @@
         <v>57</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2582,19 +2573,19 @@
         <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2605,19 +2596,19 @@
         <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>230</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2625,22 +2616,22 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2651,19 +2642,19 @@
         <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2674,19 +2665,19 @@
         <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2697,42 +2688,42 @@
         <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2743,19 +2734,19 @@
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2769,16 +2760,16 @@
         <v>64</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2786,22 +2777,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2815,16 +2806,16 @@
         <v>66</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2832,22 +2823,22 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2858,19 +2849,19 @@
         <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2881,19 +2872,19 @@
         <v>14</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2901,22 +2892,22 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2927,19 +2918,19 @@
         <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2953,16 +2944,16 @@
         <v>70</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2970,22 +2961,22 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2996,19 +2987,19 @@
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3019,19 +3010,19 @@
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3039,22 +3030,22 @@
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3065,19 +3056,19 @@
         <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3085,22 +3076,22 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3111,19 +3102,19 @@
         <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3134,19 +3125,19 @@
         <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3157,19 +3148,19 @@
         <v>18</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3180,19 +3171,19 @@
         <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3203,19 +3194,19 @@
         <v>19</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3226,19 +3217,19 @@
         <v>19</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3249,19 +3240,19 @@
         <v>19</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3275,16 +3266,16 @@
         <v>80</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3298,16 +3289,16 @@
         <v>81</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3321,16 +3312,16 @@
         <v>82</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3341,19 +3332,19 @@
         <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3364,19 +3355,19 @@
         <v>13</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3387,19 +3378,19 @@
         <v>13</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3410,19 +3401,19 @@
         <v>14</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3433,19 +3424,19 @@
         <v>14</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3456,19 +3447,19 @@
         <v>14</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3479,19 +3470,19 @@
         <v>15</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3502,19 +3493,19 @@
         <v>15</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3525,19 +3516,19 @@
         <v>15</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3548,19 +3539,19 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3571,19 +3562,19 @@
         <v>16</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3594,19 +3585,19 @@
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3617,19 +3608,19 @@
         <v>17</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3640,19 +3631,19 @@
         <v>17</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3663,19 +3654,19 @@
         <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3686,19 +3677,19 @@
         <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3709,19 +3700,19 @@
         <v>18</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3732,19 +3723,19 @@
         <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>230</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3752,22 +3743,22 @@
         <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>229</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3778,19 +3769,19 @@
         <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3801,19 +3792,19 @@
         <v>19</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3824,42 +3815,42 @@
         <v>19</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3870,19 +3861,19 @@
         <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3893,19 +3884,19 @@
         <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3913,22 +3904,22 @@
         <v>11</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3939,19 +3930,19 @@
         <v>13</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3962,19 +3953,19 @@
         <v>13</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3985,19 +3976,19 @@
         <v>14</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4008,19 +3999,19 @@
         <v>14</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4031,19 +4022,19 @@
         <v>14</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4054,19 +4045,19 @@
         <v>15</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4077,19 +4068,19 @@
         <v>15</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4100,19 +4091,19 @@
         <v>15</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4123,19 +4114,19 @@
         <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4146,19 +4137,19 @@
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4169,19 +4160,19 @@
         <v>17</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4192,19 +4183,19 @@
         <v>17</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4215,19 +4206,19 @@
         <v>18</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4238,19 +4229,19 @@
         <v>18</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4261,19 +4252,19 @@
         <v>18</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4284,19 +4275,19 @@
         <v>18</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4307,19 +4298,19 @@
         <v>19</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>230</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4330,19 +4321,19 @@
         <v>19</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4353,19 +4344,19 @@
         <v>19</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4376,19 +4367,19 @@
         <v>19</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4440,76 +4431,76 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="D3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4521,10 +4512,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4532,76 +4523,78 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="4" t="s">
-        <v>313</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4613,10 +4606,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4624,78 +4617,78 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4707,102 +4700,104 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="H14" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>362</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C16" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>362</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4814,89 +4809,85 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>372</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4908,18 +4899,18 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sinav_takvimi_tam_rapor.xlsx
+++ b/sinav_takvimi_tam_rapor.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="398">
   <si>
     <t>Gün</t>
   </si>
@@ -80,657 +80,669 @@
     <t>20:00-21:00</t>
   </si>
   <si>
-    <t>Derslik 204 + Derslik 303</t>
+    <t>Derslik 211 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 101</t>
   </si>
   <si>
     <t>Derslik 109 + Derslik 105</t>
   </si>
   <si>
-    <t>Derslik 102 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 105</t>
+    <t>Derslik 202 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 109</t>
   </si>
   <si>
     <t>Derslik 201 + Derslik 205</t>
   </si>
   <si>
-    <t>Derslik 209 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 105</t>
+    <t>Derslik 101 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 203</t>
   </si>
   <si>
     <t>Derslik 202 + Derslik 205</t>
   </si>
   <si>
-    <t>Derslik 211 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 211</t>
+    <t>Derslik 205 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 103</t>
   </si>
   <si>
     <t>Derslik 204 + Derslik 201</t>
   </si>
   <si>
-    <t>Derslik 109 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 201</t>
+    <t>Derslik 202 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Stratejik Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>İleri Örgüt Sosyolojisi</t>
+  </si>
+  <si>
+    <t>Üretim ve İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Çift)</t>
+  </si>
+  <si>
+    <t>Financial Management I</t>
+  </si>
+  <si>
+    <t>Marketing Management I</t>
+  </si>
+  <si>
+    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
+  </si>
+  <si>
+    <t>Enformetri</t>
+  </si>
+  <si>
+    <t>Borçlar Hukuku</t>
+  </si>
+  <si>
+    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
+  </si>
+  <si>
+    <t>Sosyoloji</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Tek)</t>
+  </si>
+  <si>
+    <t>Global Marketing (Çift)</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları A</t>
+  </si>
+  <si>
+    <t>Ticaret Hukuku</t>
+  </si>
+  <si>
+    <t>Stratejik Yatırım Kararları ve Planlama</t>
+  </si>
+  <si>
+    <t>Stratejik İşletme Finansı</t>
+  </si>
+  <si>
+    <t>Finansal Muhasebe</t>
+  </si>
+  <si>
+    <t>Üretim İşlemler Stratejisi</t>
+  </si>
+  <si>
+    <t>Örgüt Sosyolojisi</t>
+  </si>
+  <si>
+    <t>Reklamcılık Yönetimi</t>
+  </si>
+  <si>
+    <t>E-Pazarlama</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
+  </si>
+  <si>
+    <t>Yönetim Geliştirme</t>
+  </si>
+  <si>
+    <t>Teknoloji ve Sanayi Dinamikleri</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
+  </si>
+  <si>
+    <t>Girişimcilik ve KOBİ Yönetimi</t>
+  </si>
+  <si>
+    <t>Stratejik Yönetimde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Operations Research I</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>Kariyer Planlama</t>
+  </si>
+  <si>
+    <t>Hizmet Pazarlaması</t>
+  </si>
+  <si>
+    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları B</t>
+  </si>
+  <si>
+    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi</t>
+  </si>
+  <si>
+    <t>Akıllı Karar Modelleri</t>
+  </si>
+  <si>
+    <t>Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>Vadeli İşlem Piyasaları</t>
+  </si>
+  <si>
+    <t>İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Pazarlama Kuramı</t>
   </si>
   <si>
     <t>Yatırım Yönetimi</t>
   </si>
   <si>
-    <t>Örgüt Sosyolojisi</t>
+    <t>Modelleme ve Optimizasyon</t>
+  </si>
+  <si>
+    <t>Mali Tablolar Analizi</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>Pazarlamada Güncel Konular</t>
+  </si>
+  <si>
+    <t>Introduction to Microeconomics</t>
+  </si>
+  <si>
+    <t>Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>Yönetimde Güncel Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>İleri Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Muhasebe I</t>
+  </si>
+  <si>
+    <t>System Analysis and Design</t>
+  </si>
+  <si>
+    <t>Matematik-I (Tek)</t>
+  </si>
+  <si>
+    <t>Proje Yönetimi</t>
+  </si>
+  <si>
+    <t>Örgütler ve Yönetim</t>
+  </si>
+  <si>
+    <t>Yönetim Atölyesi</t>
+  </si>
+  <si>
+    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
+  </si>
+  <si>
+    <t>Kurumsal Koçluk ve Mentorluk</t>
+  </si>
+  <si>
+    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Stratejik Finans Yönetimi</t>
+  </si>
+  <si>
+    <t>Perakendecilik</t>
+  </si>
+  <si>
+    <t>Yatırım Analizi ve Portföy Yönetimi</t>
+  </si>
+  <si>
+    <t>Bilgi Yönetimi</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Tek)</t>
+  </si>
+  <si>
+    <t>Türk Dili I</t>
+  </si>
+  <si>
+    <t>Sürdürülebilir Pazarlama</t>
+  </si>
+  <si>
+    <t>İleri Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>Vestel İşletmecilik Seminerleri I</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>İşletme Hukuku</t>
+  </si>
+  <si>
+    <t>Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Tek)</t>
   </si>
   <si>
     <t>Dijital Dönüşümün Yönetimi</t>
   </si>
   <si>
-    <t>Mali Tablolar Analizi</t>
-  </si>
-  <si>
-    <t>Financial Management I</t>
-  </si>
-  <si>
-    <t>Marketing Management I</t>
-  </si>
-  <si>
-    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
-  </si>
-  <si>
-    <t>Modelleme ve Optimizasyon</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Çift)</t>
-  </si>
-  <si>
-    <t>Örgütsel Davranış</t>
+    <t>Yönetimin Felsefi Temelleri</t>
+  </si>
+  <si>
+    <t>Yönetim Muhasebesi</t>
+  </si>
+  <si>
+    <t>Matematik-I (Çift)</t>
+  </si>
+  <si>
+    <t>Endüstriyel Pazarlama</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
+  </si>
+  <si>
+    <t>Uluslararası Finansman</t>
+  </si>
+  <si>
+    <t>Stratejik Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
+  </si>
+  <si>
+    <t>E-İş ve Kurumsal Kaynak Planlama</t>
+  </si>
+  <si>
+    <t>İstatistik I</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Human Resources Management</t>
   </si>
   <si>
     <t>Küresel Tedarik Zinciri ve Lojistik</t>
   </si>
   <si>
+    <t>Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
+  </si>
+  <si>
+    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
+  </si>
+  <si>
+    <t>Global Marketing (Tek)</t>
+  </si>
+  <si>
+    <t>Management Consultancy</t>
+  </si>
+  <si>
+    <t>Seminer</t>
+  </si>
+  <si>
     <t>Teknoloji Yönetiminin Esasları</t>
   </si>
   <si>
     <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
   </si>
   <si>
-    <t>Yönetimin Felsefi Temelleri</t>
-  </si>
-  <si>
-    <t>Global Marketing (Çift)</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları A</t>
-  </si>
-  <si>
-    <t>Uluslararası Finansman</t>
-  </si>
-  <si>
-    <t>Örgütler ve Yönetim</t>
-  </si>
-  <si>
-    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
-  </si>
-  <si>
-    <t>Vadeli İşlem Piyasaları</t>
-  </si>
-  <si>
-    <t>Kurumsal Koçluk ve Mentorluk</t>
-  </si>
-  <si>
-    <t>Stratejik Yatırım Kararları ve Planlama</t>
-  </si>
-  <si>
-    <t>Stratejik İşletme Finansı</t>
-  </si>
-  <si>
-    <t>Üretim İşlemler Stratejisi</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>Borçlar Hukuku</t>
-  </si>
-  <si>
-    <t>İleri Örgütsel Davranış</t>
-  </si>
-  <si>
-    <t>Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>Teknoloji ve Sanayi Dinamikleri</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları</t>
-  </si>
-  <si>
-    <t>Yönetim Bilişim Sistemleri</t>
-  </si>
-  <si>
-    <t>Yönetimde Güncel Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
-  </si>
-  <si>
-    <t>Stratejik Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetim Muhasebesi</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları B</t>
-  </si>
-  <si>
-    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
-  </si>
-  <si>
-    <t>İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetim Atölyesi</t>
-  </si>
-  <si>
-    <t>Stratejik Finans Yönetimi</t>
-  </si>
-  <si>
-    <t>Pazarlama Kuramı</t>
-  </si>
-  <si>
-    <t>Enformetri</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Tek)</t>
-  </si>
-  <si>
-    <t>E-Pazarlama</t>
-  </si>
-  <si>
-    <t>Yönetim Geliştirme</t>
-  </si>
-  <si>
-    <t>Introduction to Microeconomics</t>
-  </si>
-  <si>
-    <t>Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Üretim ve İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Pazarlamada Güncel Konular</t>
-  </si>
-  <si>
-    <t>Sosyoloji</t>
-  </si>
-  <si>
     <t>Retailing I</t>
   </si>
   <si>
-    <t>Pazarlama Yönetimi</t>
+    <t>Operations Management I</t>
   </si>
   <si>
     <t>Malzeme ve Stok Yönetimi</t>
   </si>
   <si>
-    <t>Akıllı Karar Modelleri</t>
-  </si>
-  <si>
-    <t>Ticaret Hukuku</t>
-  </si>
-  <si>
-    <t>Perakendecilik</t>
-  </si>
-  <si>
-    <t>E-İş ve Kurumsal Kaynak Planlama</t>
-  </si>
-  <si>
-    <t>İleri Örgüt Sosyolojisi</t>
-  </si>
-  <si>
-    <t>Girişimcilik ve KOBİ Yönetimi</t>
-  </si>
-  <si>
-    <t>Kariyer Planlama</t>
-  </si>
-  <si>
-    <t>Sürdürülebilir Pazarlama</t>
-  </si>
-  <si>
-    <t>Vestel İşletmecilik Seminerleri I</t>
-  </si>
-  <si>
-    <t>Reklamcılık Yönetimi</t>
-  </si>
-  <si>
-    <t>İşletme Hukuku</t>
-  </si>
-  <si>
-    <t>Türk Dili I</t>
-  </si>
-  <si>
-    <t>Hizmet Pazarlaması</t>
-  </si>
-  <si>
-    <t>İleri Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>İstatistik I</t>
-  </si>
-  <si>
-    <t>System Analysis and Design</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Stratejik Yönetimde Güncel Konular</t>
-  </si>
-  <si>
-    <t>Endüstriyel Pazarlama</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
-  </si>
-  <si>
-    <t>Proje Yönetimi</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi</t>
-  </si>
-  <si>
-    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
-  </si>
-  <si>
-    <t>Stratejik Pazarlama Yönetimi</t>
-  </si>
-  <si>
-    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
-  </si>
-  <si>
-    <t>Muhasebe I</t>
-  </si>
-  <si>
-    <t>Bilgi Yönetimi</t>
-  </si>
-  <si>
-    <t>Matematik-I (Çift)</t>
-  </si>
-  <si>
-    <t>Human Resources Management</t>
-  </si>
-  <si>
-    <t>Management Consultancy</t>
-  </si>
-  <si>
-    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
-  </si>
-  <si>
-    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
-  </si>
-  <si>
-    <t>Global Marketing (Tek)</t>
-  </si>
-  <si>
-    <t>Operations Management I</t>
-  </si>
-  <si>
-    <t>Seminer</t>
-  </si>
-  <si>
-    <t>Operations Research I</t>
-  </si>
-  <si>
-    <t>Yatırım Analizi ve Portföy Yönetimi</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>Matematik-I (Tek)</t>
-  </si>
-  <si>
-    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
-  </si>
-  <si>
     <t>İş Analitiğinde Sayısal Yöntemler</t>
   </si>
   <si>
-    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
-  </si>
-  <si>
     <t>Ağ Modelleri</t>
   </si>
   <si>
-    <t>Finansal Muhasebe</t>
+    <t>Üretim Yönetimi ve Sayısal Yöntemler Doktora</t>
+  </si>
+  <si>
+    <t>Yönetim ve Organizasyon Doktora</t>
+  </si>
+  <si>
+    <t>İşletme Tezli</t>
   </si>
   <si>
     <t>3. Sınıf</t>
   </si>
   <si>
+    <t>2. Sınıf</t>
+  </si>
+  <si>
+    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
+  </si>
+  <si>
+    <t>Yönetim Bilimi ve Organizasyon Tezli</t>
+  </si>
+  <si>
+    <t>1. Sınıf</t>
+  </si>
+  <si>
+    <t>4. Sınıf</t>
+  </si>
+  <si>
+    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İşletme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
     <t>İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
   </si>
   <si>
-    <t>İşletme Tezli</t>
-  </si>
-  <si>
-    <t>2. Sınıf</t>
-  </si>
-  <si>
-    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
-  </si>
-  <si>
-    <t>Üretim Yönetimi ve Sayısal Yöntemler Doktora</t>
-  </si>
-  <si>
-    <t>1. Sınıf</t>
-  </si>
-  <si>
-    <t>Yönetim ve Organizasyon Doktora</t>
-  </si>
-  <si>
-    <t>4. Sınıf</t>
-  </si>
-  <si>
-    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Yönetim Bilimi ve Organizasyon Tezli</t>
+    <t>İşletme Tezli, Pazarlama Tezli</t>
   </si>
   <si>
     <t>İşletme Tezli, Üretim Yönetimi Tezli</t>
   </si>
   <si>
-    <t>İşletme Tezli, Pazarlama Tezli</t>
-  </si>
-  <si>
     <t>Pazarlama Tezli</t>
   </si>
   <si>
@@ -740,466 +752,466 @@
     <t>İşletme Doktora</t>
   </si>
   <si>
+    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
+  </si>
+  <si>
     <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
-    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
-  </si>
-  <si>
     <t>Zorunlu</t>
   </si>
   <si>
     <t>Seçmeli</t>
   </si>
   <si>
+    <t>Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
     <t>Araş. Gör. Dr. Özgür BABACAN</t>
   </si>
   <si>
-    <t>Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
     <t>ÖĞRETMEN 3</t>
   </si>
   <si>
+    <t>ÖĞRETMEN 1</t>
+  </si>
+  <si>
     <t>Prof. Dr. Aykan CANDEMİR</t>
   </si>
   <si>
     <t>Prof. Dr. İpek KAZANÇOĞLU</t>
   </si>
   <si>
+    <t>Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
     <t>ÖĞRETMEN 4</t>
   </si>
   <si>
-    <t>Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
     <t>ÖĞRETMEN 2</t>
   </si>
   <si>
     <t>ÖĞRETMEN 5</t>
   </si>
   <si>
-    <t>ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 303: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 105: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 210: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 203: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 205: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 102: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 105: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 205: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 211: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 303: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 101: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 205: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 104: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 211: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 102: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 102: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 111: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 202: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 205: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 103: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 109: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 201: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 209: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 109: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 105: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 211: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 109: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 101: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 208: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 102: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 211: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 103: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 103: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 102: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 104: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 108: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 211: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 210: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 101: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 110: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 101: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 103: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 211: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 110: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 210: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 208: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 209: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 303: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 101: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 102: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 303: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 110: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 103: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 111: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 209: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 209: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 211: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 303: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 103: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 208: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 104: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 110: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 202: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 303: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 101: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 208: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 205: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 102: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 101: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 111: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 208: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 205: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 203: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 208: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 104: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 105: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 109: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 204: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 110: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 303: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 203: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 211: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 209: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 201: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 210: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 102: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 208: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 201: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 204: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 211: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 201: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 209: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 205: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 209: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 110: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 105: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 303: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 202: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 205: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 102: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 111: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 303: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 202: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 201: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 204: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 110: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 108: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 104: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 209: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 201: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 211 + Derslik 104: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 105: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 208: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 210: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 203: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 203: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 111: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 108: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 209: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 104: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 210: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 202: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 108: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 103: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 110: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 201: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 108: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 109: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 105: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 109: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 210: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 103: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 104: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 209: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 210: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 203: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 103: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 202: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 103: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 211: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 210: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 204: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 202: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 204: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 101: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 208: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 102: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 203: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 109: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 105: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 205: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 209: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 108: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 303: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 108: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 109: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 111: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 103: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 208: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 102: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 111: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 108: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 104: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 202: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 202: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 210: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 104: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 111: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 201: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 102: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 202: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 105: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 210: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 209: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 202: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 108: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 211: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 202: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 103: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 202: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 101: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 210: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 211: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 103: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 205: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 109: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 209: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 101: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 303: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 203: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 208: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 111: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 105: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 203: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 108: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 111: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 204: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 203: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 205: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 108: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 201: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 203: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 103: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 201: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 101: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 201: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 104: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 108: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 211: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 101: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 102: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 104: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 208: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 204: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 202: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 202: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 103: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 105: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 201: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>
@@ -1656,16 +1668,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1679,16 +1691,16 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1702,16 +1714,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1725,16 +1737,16 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1748,16 +1760,16 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1771,16 +1783,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1794,16 +1806,16 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1817,16 +1829,16 @@
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1840,16 +1852,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1863,16 +1875,16 @@
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1880,22 +1892,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1909,16 +1921,16 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1932,16 +1944,16 @@
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1958,13 +1970,13 @@
         <v>132</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1978,16 +1990,16 @@
         <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1998,19 +2010,19 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2021,19 +2033,19 @@
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2044,19 +2056,19 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2067,19 +2079,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2090,19 +2102,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2113,19 +2125,19 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2136,19 +2148,19 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2162,16 +2174,16 @@
         <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2185,16 +2197,16 @@
         <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2208,16 +2220,16 @@
         <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2231,16 +2243,16 @@
         <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2254,16 +2266,16 @@
         <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2277,16 +2289,16 @@
         <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2303,13 +2315,13 @@
         <v>146</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2326,13 +2338,13 @@
         <v>147</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2349,13 +2361,13 @@
         <v>148</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2372,13 +2384,13 @@
         <v>149</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2395,13 +2407,13 @@
         <v>150</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2418,13 +2430,13 @@
         <v>151</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2441,13 +2453,13 @@
         <v>152</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2458,19 +2470,19 @@
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2481,19 +2493,19 @@
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2501,22 +2513,22 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2527,19 +2539,19 @@
         <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2547,22 +2559,22 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2573,19 +2585,19 @@
         <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2596,19 +2608,19 @@
         <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2619,19 +2631,19 @@
         <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2639,22 +2651,22 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2665,19 +2677,19 @@
         <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2688,19 +2700,19 @@
         <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2711,42 +2723,42 @@
         <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2757,19 +2769,19 @@
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2780,19 +2792,19 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2800,22 +2812,22 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2826,19 +2838,19 @@
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2846,19 +2858,19 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>266</v>
@@ -2869,22 +2881,22 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2895,19 +2907,19 @@
         <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2915,22 +2927,22 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2938,22 +2950,22 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2964,19 +2976,19 @@
         <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2984,22 +2996,22 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3010,19 +3022,19 @@
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3033,19 +3045,19 @@
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3056,19 +3068,19 @@
         <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3079,19 +3091,19 @@
         <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3102,19 +3114,19 @@
         <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3125,19 +3137,19 @@
         <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3148,19 +3160,19 @@
         <v>18</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3171,19 +3183,19 @@
         <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3191,22 +3203,22 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3217,19 +3229,19 @@
         <v>19</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3240,19 +3252,19 @@
         <v>19</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3263,42 +3275,42 @@
         <v>19</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3309,19 +3321,19 @@
         <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3332,19 +3344,19 @@
         <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3352,22 +3364,22 @@
         <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3378,19 +3390,19 @@
         <v>13</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3398,22 +3410,22 @@
         <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3421,22 +3433,22 @@
         <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3447,19 +3459,19 @@
         <v>14</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3467,22 +3479,22 @@
         <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3490,22 +3502,22 @@
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3516,19 +3528,19 @@
         <v>15</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3536,22 +3548,22 @@
         <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3562,19 +3574,19 @@
         <v>16</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3585,19 +3597,19 @@
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3605,22 +3617,22 @@
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3631,19 +3643,19 @@
         <v>17</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3651,22 +3663,22 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3677,19 +3689,19 @@
         <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3700,19 +3712,19 @@
         <v>18</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3723,19 +3735,19 @@
         <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3746,19 +3758,19 @@
         <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3769,19 +3781,19 @@
         <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3792,19 +3804,19 @@
         <v>19</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3815,19 +3827,19 @@
         <v>19</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3838,19 +3850,19 @@
         <v>19</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3861,19 +3873,19 @@
         <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3884,19 +3896,19 @@
         <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3907,19 +3919,19 @@
         <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3930,19 +3942,19 @@
         <v>13</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3953,19 +3965,19 @@
         <v>13</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3973,22 +3985,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3999,19 +4011,19 @@
         <v>14</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4022,19 +4034,19 @@
         <v>14</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4042,22 +4054,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4068,19 +4080,19 @@
         <v>15</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4091,19 +4103,19 @@
         <v>15</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4114,19 +4126,19 @@
         <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4137,19 +4149,19 @@
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4160,19 +4172,19 @@
         <v>17</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4183,19 +4195,19 @@
         <v>17</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4206,19 +4218,19 @@
         <v>18</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4229,19 +4241,19 @@
         <v>18</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4252,19 +4264,19 @@
         <v>18</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4275,19 +4287,19 @@
         <v>18</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4298,19 +4310,19 @@
         <v>19</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4321,19 +4333,19 @@
         <v>19</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4344,19 +4356,19 @@
         <v>19</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4367,19 +4379,19 @@
         <v>19</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4431,76 +4443,76 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>286</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4512,10 +4524,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4523,78 +4535,80 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>316</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4606,10 +4620,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4617,78 +4631,76 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F12" s="4" t="s">
         <v>335</v>
       </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4700,104 +4712,102 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="G15" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>352</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>363</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H16" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4809,85 +4819,87 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>380</v>
+      </c>
       <c r="D21" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>381</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4899,18 +4911,18 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sinav_takvimi_tam_rapor.xlsx
+++ b/sinav_takvimi_tam_rapor.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="393">
   <si>
     <t>Gün</t>
   </si>
@@ -80,678 +80,663 @@
     <t>20:00-21:00</t>
   </si>
   <si>
+    <t>Derslik 209 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 303</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 103</t>
+  </si>
+  <si>
     <t>Derslik 211 + Derslik 104</t>
   </si>
   <si>
-    <t>Derslik 303 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 202</t>
+    <t>Derslik 204 + Derslik 208</t>
   </si>
   <si>
     <t>Derslik 101 + Derslik 103</t>
   </si>
   <si>
-    <t>Derslik 111 + Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 303</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 211</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 105</t>
+    <t>Derslik 210 + Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 104</t>
+  </si>
+  <si>
+    <t>Sosyoloji</t>
+  </si>
+  <si>
+    <t>Enformetri</t>
+  </si>
+  <si>
+    <t>Üretim ve İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Tek)</t>
+  </si>
+  <si>
+    <t>Küresel Tedarik Zinciri ve Lojistik</t>
+  </si>
+  <si>
+    <t>Marketing Management I</t>
+  </si>
+  <si>
+    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Çift)</t>
+  </si>
+  <si>
+    <t>Borçlar Hukuku</t>
+  </si>
+  <si>
+    <t>Yönetimde Güncel Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>İstatistik I</t>
+  </si>
+  <si>
+    <t>System Analysis and Design</t>
+  </si>
+  <si>
+    <t>Matematik-I (Tek)</t>
+  </si>
+  <si>
+    <t>İleri Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları A</t>
+  </si>
+  <si>
+    <t>Örgütler ve Yönetim</t>
+  </si>
+  <si>
+    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
+  </si>
+  <si>
+    <t>Ticaret Hukuku</t>
+  </si>
+  <si>
+    <t>Yönetim Atölyesi</t>
+  </si>
+  <si>
+    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Stratejik Finans Yönetimi</t>
+  </si>
+  <si>
+    <t>Endüstriyel Pazarlama</t>
+  </si>
+  <si>
+    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
+  </si>
+  <si>
+    <t>Üretim İşlemler Stratejisi</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Tek)</t>
+  </si>
+  <si>
+    <t>Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Sürdürülebilir Pazarlama</t>
+  </si>
+  <si>
+    <t>Pazarlamada Güncel Konular</t>
+  </si>
+  <si>
+    <t>Teknoloji ve Sanayi Dinamikleri</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları</t>
+  </si>
+  <si>
+    <t>Modelleme ve Optimizasyon</t>
+  </si>
+  <si>
+    <t>Mali Tablolar Analizi</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Tek)</t>
   </si>
   <si>
     <t>Stratejik Stok Yönetimi</t>
   </si>
   <si>
+    <t>Stratejik Yönetimde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları B</t>
+  </si>
+  <si>
+    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
+  </si>
+  <si>
+    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
+  </si>
+  <si>
+    <t>Stratejik İşletme Finansı</t>
+  </si>
+  <si>
+    <t>Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>Pazarlama Kuramı</t>
+  </si>
+  <si>
+    <t>Yatırım Yönetimi</t>
+  </si>
+  <si>
+    <t>Örgüt Sosyolojisi</t>
+  </si>
+  <si>
+    <t>E-Pazarlama</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
+  </si>
+  <si>
+    <t>Yönetim Geliştirme</t>
+  </si>
+  <si>
+    <t>Introduction to Microeconomics</t>
+  </si>
+  <si>
+    <t>Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
+  </si>
+  <si>
+    <t>İleri Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>Muhasebe I</t>
+  </si>
+  <si>
+    <t>Yönetimin Felsefi Temelleri</t>
+  </si>
+  <si>
+    <t>Kariyer Planlama</t>
+  </si>
+  <si>
+    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
+  </si>
+  <si>
+    <t>Proje Yönetimi</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi</t>
+  </si>
+  <si>
+    <t>İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Vadeli İşlem Piyasaları</t>
+  </si>
+  <si>
+    <t>Perakendecilik</t>
+  </si>
+  <si>
+    <t>Ağ Modelleri</t>
+  </si>
+  <si>
+    <t>Yatırım Analizi ve Portföy Yönetimi</t>
+  </si>
+  <si>
+    <t>Bilgi Yönetimi</t>
+  </si>
+  <si>
+    <t>Girişimcilik ve KOBİ Yönetimi</t>
+  </si>
+  <si>
+    <t>Matematik-I (Çift)</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>Vestel İşletmecilik Seminerleri I</t>
+  </si>
+  <si>
+    <t>Reklamcılık Yönetimi</t>
+  </si>
+  <si>
+    <t>İşletme Hukuku</t>
+  </si>
+  <si>
+    <t>Türk Dili I</t>
+  </si>
+  <si>
+    <t>Hizmet Pazarlaması</t>
+  </si>
+  <si>
     <t>İleri Örgüt Sosyolojisi</t>
   </si>
   <si>
-    <t>Üretim ve İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Çift)</t>
+    <t>Dijital Dönüşümün Yönetimi</t>
+  </si>
+  <si>
+    <t>Yönetim Muhasebesi</t>
+  </si>
+  <si>
+    <t>Global Marketing (Çift)</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
+  </si>
+  <si>
+    <t>Uluslararası Finansman</t>
+  </si>
+  <si>
+    <t>İş Analitiğinde Sayısal Yöntemler</t>
+  </si>
+  <si>
+    <t>Akıllı Karar Modelleri</t>
+  </si>
+  <si>
+    <t>Kurumsal Koçluk ve Mentorluk</t>
+  </si>
+  <si>
+    <t>Stratejik Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>E-İş ve Kurumsal Kaynak Planlama</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Human Resources Management</t>
+  </si>
+  <si>
+    <t>Management Consultancy</t>
   </si>
   <si>
     <t>Financial Management I</t>
   </si>
   <si>
-    <t>Marketing Management I</t>
-  </si>
-  <si>
-    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
-  </si>
-  <si>
-    <t>Enformetri</t>
-  </si>
-  <si>
-    <t>Borçlar Hukuku</t>
-  </si>
-  <si>
-    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
-  </si>
-  <si>
-    <t>Sosyoloji</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Global Marketing (Çift)</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları A</t>
-  </si>
-  <si>
-    <t>Ticaret Hukuku</t>
+    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
+  </si>
+  <si>
+    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
+  </si>
+  <si>
+    <t>Global Marketing (Tek)</t>
+  </si>
+  <si>
+    <t>Operations Management I</t>
+  </si>
+  <si>
+    <t>Seminer</t>
+  </si>
+  <si>
+    <t>Operations Research I</t>
+  </si>
+  <si>
+    <t>Teknoloji Yönetiminin Esasları</t>
+  </si>
+  <si>
+    <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>Retailing I</t>
+  </si>
+  <si>
+    <t>Malzeme ve Stok Yönetimi</t>
   </si>
   <si>
     <t>Stratejik Yatırım Kararları ve Planlama</t>
   </si>
   <si>
-    <t>Stratejik İşletme Finansı</t>
-  </si>
-  <si>
     <t>Finansal Muhasebe</t>
   </si>
   <si>
-    <t>Üretim İşlemler Stratejisi</t>
-  </si>
-  <si>
-    <t>Örgüt Sosyolojisi</t>
-  </si>
-  <si>
-    <t>Reklamcılık Yönetimi</t>
-  </si>
-  <si>
-    <t>E-Pazarlama</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
-  </si>
-  <si>
-    <t>Yönetim Geliştirme</t>
-  </si>
-  <si>
-    <t>Teknoloji ve Sanayi Dinamikleri</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları</t>
-  </si>
-  <si>
-    <t>Yönetim Bilişim Sistemleri</t>
-  </si>
-  <si>
-    <t>Girişimcilik ve KOBİ Yönetimi</t>
-  </si>
-  <si>
-    <t>Stratejik Yönetimde Güncel Konular</t>
-  </si>
-  <si>
-    <t>Operations Research I</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>Kariyer Planlama</t>
-  </si>
-  <si>
-    <t>Hizmet Pazarlaması</t>
-  </si>
-  <si>
-    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları B</t>
-  </si>
-  <si>
-    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi</t>
-  </si>
-  <si>
-    <t>Akıllı Karar Modelleri</t>
-  </si>
-  <si>
-    <t>Pazarlama Yönetimi</t>
-  </si>
-  <si>
-    <t>Vadeli İşlem Piyasaları</t>
-  </si>
-  <si>
-    <t>İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Pazarlama Kuramı</t>
-  </si>
-  <si>
-    <t>Yatırım Yönetimi</t>
-  </si>
-  <si>
-    <t>Modelleme ve Optimizasyon</t>
-  </si>
-  <si>
-    <t>Mali Tablolar Analizi</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>Pazarlamada Güncel Konular</t>
-  </si>
-  <si>
-    <t>Introduction to Microeconomics</t>
-  </si>
-  <si>
-    <t>Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetimde Güncel Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>İleri Örgütsel Davranış</t>
-  </si>
-  <si>
-    <t>Muhasebe I</t>
-  </si>
-  <si>
-    <t>System Analysis and Design</t>
-  </si>
-  <si>
-    <t>Matematik-I (Tek)</t>
-  </si>
-  <si>
-    <t>Proje Yönetimi</t>
-  </si>
-  <si>
-    <t>Örgütler ve Yönetim</t>
-  </si>
-  <si>
-    <t>Yönetim Atölyesi</t>
-  </si>
-  <si>
-    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
-  </si>
-  <si>
-    <t>Kurumsal Koçluk ve Mentorluk</t>
-  </si>
-  <si>
-    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
-  </si>
-  <si>
-    <t>Stratejik Finans Yönetimi</t>
-  </si>
-  <si>
-    <t>Perakendecilik</t>
-  </si>
-  <si>
-    <t>Yatırım Analizi ve Portföy Yönetimi</t>
-  </si>
-  <si>
-    <t>Bilgi Yönetimi</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Tek)</t>
-  </si>
-  <si>
-    <t>Türk Dili I</t>
-  </si>
-  <si>
-    <t>Sürdürülebilir Pazarlama</t>
-  </si>
-  <si>
-    <t>İleri Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>Vestel İşletmecilik Seminerleri I</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>İşletme Hukuku</t>
-  </si>
-  <si>
-    <t>Örgütsel Davranış</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Dijital Dönüşümün Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetimin Felsefi Temelleri</t>
-  </si>
-  <si>
-    <t>Yönetim Muhasebesi</t>
-  </si>
-  <si>
-    <t>Matematik-I (Çift)</t>
-  </si>
-  <si>
-    <t>Endüstriyel Pazarlama</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
-  </si>
-  <si>
-    <t>Uluslararası Finansman</t>
-  </si>
-  <si>
-    <t>Stratejik Pazarlama Yönetimi</t>
-  </si>
-  <si>
-    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
-  </si>
-  <si>
-    <t>E-İş ve Kurumsal Kaynak Planlama</t>
-  </si>
-  <si>
-    <t>İstatistik I</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Human Resources Management</t>
-  </si>
-  <si>
-    <t>Küresel Tedarik Zinciri ve Lojistik</t>
-  </si>
-  <si>
-    <t>Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
-  </si>
-  <si>
-    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
-  </si>
-  <si>
-    <t>Global Marketing (Tek)</t>
-  </si>
-  <si>
-    <t>Management Consultancy</t>
-  </si>
-  <si>
-    <t>Seminer</t>
-  </si>
-  <si>
-    <t>Teknoloji Yönetiminin Esasları</t>
-  </si>
-  <si>
-    <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
-  </si>
-  <si>
-    <t>Retailing I</t>
-  </si>
-  <si>
-    <t>Operations Management I</t>
-  </si>
-  <si>
-    <t>Malzeme ve Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>İş Analitiğinde Sayısal Yöntemler</t>
-  </si>
-  <si>
-    <t>Ağ Modelleri</t>
+    <t>1. Sınıf</t>
+  </si>
+  <si>
+    <t>3. Sınıf</t>
+  </si>
+  <si>
+    <t>İşletme Tezli</t>
+  </si>
+  <si>
+    <t>2. Sınıf</t>
+  </si>
+  <si>
+    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
+  </si>
+  <si>
+    <t>İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
+  </si>
+  <si>
+    <t>İşletme Tezli, Üretim Yönetimi Tezli</t>
+  </si>
+  <si>
+    <t>4. Sınıf</t>
+  </si>
+  <si>
+    <t>Yönetim ve Organizasyon Doktora</t>
+  </si>
+  <si>
+    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İşletme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
   </si>
   <si>
     <t>Üretim Yönetimi ve Sayısal Yöntemler Doktora</t>
   </si>
   <si>
-    <t>Yönetim ve Organizasyon Doktora</t>
-  </si>
-  <si>
-    <t>İşletme Tezli</t>
-  </si>
-  <si>
-    <t>3. Sınıf</t>
-  </si>
-  <si>
-    <t>2. Sınıf</t>
-  </si>
-  <si>
-    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
+    <t>İşletme Tezli, Pazarlama Tezli</t>
+  </si>
+  <si>
+    <t>Pazarlama Tezli</t>
+  </si>
+  <si>
+    <t>Uzaktan Öğretim İşletme Tezsiz</t>
+  </si>
+  <si>
+    <t>İşletme Doktora</t>
   </si>
   <si>
     <t>Yönetim Bilimi ve Organizasyon Tezli</t>
   </si>
   <si>
-    <t>1. Sınıf</t>
-  </si>
-  <si>
-    <t>4. Sınıf</t>
-  </si>
-  <si>
-    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
-  </si>
-  <si>
-    <t>İşletme Tezli, Pazarlama Tezli</t>
-  </si>
-  <si>
-    <t>İşletme Tezli, Üretim Yönetimi Tezli</t>
-  </si>
-  <si>
-    <t>Pazarlama Tezli</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim İşletme Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme Doktora</t>
-  </si>
-  <si>
     <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
@@ -764,454 +749,454 @@
     <t>Seçmeli</t>
   </si>
   <si>
+    <t>Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 1</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
     <t>Doç. Dr. Aydın KOÇAK</t>
   </si>
   <si>
-    <t>Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
     <t>Prof. Dr. Burak ÇAPRAZ</t>
   </si>
   <si>
-    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
     <t>Doç. Dr. Sema AYDIN</t>
   </si>
   <si>
-    <t>Prof. Dr. Burcu ARACIOĞLU</t>
+    <t>Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 4</t>
   </si>
   <si>
     <t>Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
-    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 3</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 2</t>
-  </si>
-  <si>
     <t>ÖĞRETMEN 5</t>
   </si>
   <si>
-    <t>Derslik 211 + Derslik 104: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 105: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 208: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 210: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 203: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 203: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 111: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 108: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 209: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 104: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 210: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 202: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 108: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 103: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 110: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 201: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 108: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 109: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 105: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 109: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 210: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 103: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 104: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 209: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 210: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 203: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 103: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 202: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 103: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 211: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 210: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 204: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 202: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 204: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 101: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 208: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 102: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 203: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 109: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 105: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 205: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 209: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 108: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 303: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 108: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 109: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 111: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 103: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 208: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 102: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 111: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 108: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 110 + Derslik 104: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 202: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 202: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 210: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 104: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 111: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 201: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 102: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 202: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 105: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 210: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 209: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 202: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 108: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 211: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 202: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 103: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 202: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 101: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 210: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 211: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 103: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 205: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 105 + Derslik 109: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 211 + Derslik 209: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 101: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 303: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 203: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 208: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 111: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 105: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 104 + Derslik 203: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 108: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 102 + Derslik 111: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201 + Derslik 204: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 203: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 205: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 303 + Derslik 108: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 201: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 203: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 103: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 201: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 101: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 109 + Derslik 201: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 104: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 208 + Derslik 108: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 211: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 202 + Derslik 101: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 204 + Derslik 102: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101 + Derslik 104: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 103 + Derslik 208: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 210 + Derslik 204: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 203 + Derslik 202: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 108 + Derslik 202: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 209 + Derslik 103: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 205 + Derslik 105: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 111 + Derslik 201: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 209 + Derslik 103: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 203: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 211: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 211: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 101: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 203: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 202: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 204: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 105: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 211: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 102: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 108: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 111: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 105: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 203: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 303: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 208: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 101: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 103: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 208: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 201: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 111: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 105: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 303: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 104: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 205: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 108: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 111: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 201: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 102: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 104: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 205: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 101: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 303: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 201: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 108: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 103: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 203: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 111: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 101: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 104: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 201: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 203: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 211: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 102: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 210: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 202: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 111: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 211: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 102: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 109: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 203: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 204: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 210: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 110: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 101: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 201: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 204: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 208: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 210: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 102: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 203: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 211: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 104: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 108: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 205: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 109: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 109: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 205: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 102: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 110: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 105: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 210: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 202: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 111: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 101: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 110: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 303 + Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 111 + Derslik 211: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 211: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 101: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 102 + Derslik 209: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 110 + Derslik 208: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 104 + Derslik 208: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 110: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 210: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 201: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 208 + Derslik 201: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 202 + Derslik 110: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 203: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 205 + Derslik 111: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 104: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 103 + Derslik 104: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 105: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 101: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 109 + Derslik 211: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203 + Derslik 105: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 103: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 303: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 105 + Derslik 103: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 108 + Derslik 204: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 209 + Derslik 208: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 109: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 103: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 303: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 211 + Derslik 104: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204 + Derslik 208: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101 + Derslik 103: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 210 + Derslik 209: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201 + Derslik 104: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>
@@ -1668,16 +1653,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1691,16 +1676,16 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1714,16 +1699,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1737,16 +1722,16 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1760,16 +1745,16 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1783,16 +1768,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1806,16 +1791,16 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1829,16 +1814,16 @@
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1852,16 +1837,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1875,16 +1860,16 @@
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1892,22 +1877,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1921,16 +1906,16 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1944,16 +1929,16 @@
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1967,16 +1952,16 @@
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1990,16 +1975,16 @@
         <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2013,16 +1998,16 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2036,16 +2021,16 @@
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2059,16 +2044,16 @@
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2082,16 +2067,16 @@
         <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2099,22 +2084,22 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2131,13 +2116,13 @@
         <v>138</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2148,19 +2133,19 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2171,42 +2156,42 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2217,16 +2202,16 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>249</v>
@@ -2246,13 +2231,13 @@
         <v>143</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2260,7 +2245,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>45</v>
@@ -2269,13 +2254,13 @@
         <v>144</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2292,13 +2277,13 @@
         <v>145</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2315,13 +2300,13 @@
         <v>146</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2329,7 +2314,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>48</v>
@@ -2338,13 +2323,13 @@
         <v>147</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2361,13 +2346,13 @@
         <v>148</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2384,13 +2369,13 @@
         <v>149</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2398,7 +2383,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>51</v>
@@ -2407,13 +2392,13 @@
         <v>150</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2430,13 +2415,13 @@
         <v>151</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2453,13 +2438,13 @@
         <v>152</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2473,16 +2458,16 @@
         <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2496,16 +2481,16 @@
         <v>55</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2519,16 +2504,16 @@
         <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2542,16 +2527,16 @@
         <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2565,16 +2550,16 @@
         <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2588,16 +2573,16 @@
         <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2611,16 +2596,16 @@
         <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2631,19 +2616,19 @@
         <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2654,19 +2639,19 @@
         <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2677,19 +2662,19 @@
         <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2700,19 +2685,19 @@
         <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2723,19 +2708,19 @@
         <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2746,19 +2731,19 @@
         <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2772,16 +2757,16 @@
         <v>66</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2795,16 +2780,16 @@
         <v>67</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2818,16 +2803,16 @@
         <v>68</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2841,16 +2826,16 @@
         <v>69</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2864,16 +2849,16 @@
         <v>70</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2884,19 +2869,19 @@
         <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2907,19 +2892,19 @@
         <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2930,19 +2915,19 @@
         <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2953,19 +2938,19 @@
         <v>14</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2976,19 +2961,19 @@
         <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2999,19 +2984,19 @@
         <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3019,22 +3004,22 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3045,19 +3030,19 @@
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3065,22 +3050,22 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3088,22 +3073,22 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3111,22 +3096,22 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3134,22 +3119,22 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3160,19 +3145,19 @@
         <v>18</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3183,19 +3168,19 @@
         <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3206,19 +3191,19 @@
         <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3226,22 +3211,22 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3252,19 +3237,19 @@
         <v>19</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3275,19 +3260,19 @@
         <v>19</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3298,42 +3283,42 @@
         <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3344,19 +3329,19 @@
         <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3370,16 +3355,16 @@
         <v>87</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3387,22 +3372,22 @@
         <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3416,16 +3401,16 @@
         <v>89</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3439,13 +3424,13 @@
         <v>90</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>267</v>
@@ -3459,19 +3444,19 @@
         <v>14</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3482,19 +3467,19 @@
         <v>14</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3505,19 +3490,19 @@
         <v>14</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3528,19 +3513,19 @@
         <v>15</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3551,19 +3536,19 @@
         <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3574,19 +3559,19 @@
         <v>16</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3597,19 +3582,19 @@
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3620,19 +3605,19 @@
         <v>16</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3643,19 +3628,19 @@
         <v>17</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3666,19 +3651,19 @@
         <v>17</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3689,19 +3674,19 @@
         <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3712,19 +3697,19 @@
         <v>18</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3735,19 +3720,19 @@
         <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3758,19 +3743,19 @@
         <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3781,19 +3766,19 @@
         <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3804,19 +3789,19 @@
         <v>19</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3827,19 +3812,19 @@
         <v>19</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3850,19 +3835,19 @@
         <v>19</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3873,19 +3858,19 @@
         <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3896,19 +3881,19 @@
         <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3919,19 +3904,19 @@
         <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3942,19 +3927,19 @@
         <v>13</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3965,19 +3950,19 @@
         <v>13</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3985,22 +3970,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4011,19 +3996,19 @@
         <v>14</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4034,19 +4019,19 @@
         <v>14</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4054,22 +4039,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4080,19 +4065,19 @@
         <v>15</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4103,19 +4088,19 @@
         <v>15</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4126,19 +4111,19 @@
         <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4149,19 +4134,19 @@
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4172,19 +4157,19 @@
         <v>17</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4195,19 +4180,19 @@
         <v>17</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4218,19 +4203,19 @@
         <v>18</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4241,19 +4226,19 @@
         <v>18</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4264,19 +4249,19 @@
         <v>18</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4287,19 +4272,19 @@
         <v>18</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4310,19 +4295,19 @@
         <v>19</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4333,19 +4318,19 @@
         <v>19</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4356,19 +4341,19 @@
         <v>19</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4379,19 +4364,19 @@
         <v>19</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4443,76 +4428,76 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
-        <v>291</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4524,198 +4509,198 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="I5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="H12" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4727,87 +4712,87 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>356</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4819,10 +4804,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4830,76 +4815,76 @@
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4911,17 +4896,17 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
   </mergeCells>
